--- a/biology/Médecine/Samuel_Taylor_Darling/Samuel_Taylor_Darling.xlsx
+++ b/biology/Médecine/Samuel_Taylor_Darling/Samuel_Taylor_Darling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Samuel Taylor Darling (6 avril 1872 à Harrison, New Jersey - 21 mai 1925 à Beyrouth) est un pathologiste et bactériologiste américain qui a découvert le pathogène Histoplasma capsulatum en 1906 [1]. Il est décédé à Beyrouth dans un accident d'automobile avec le paludologue britannique Norman Lothian [2],[3],[4]. Le «Prix Darling» pour la recherche sur le paludisme a été créé en sa mémoire. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samuel Taylor Darling (6 avril 1872 à Harrison, New Jersey - 21 mai 1925 à Beyrouth) est un pathologiste et bactériologiste américain qui a découvert le pathogène Histoplasma capsulatum en 1906 . Il est décédé à Beyrouth dans un accident d'automobile avec le paludologue britannique Norman Lothian . Le «Prix Darling» pour la recherche sur le paludisme a été créé en sa mémoire. 
 </t>
         </is>
       </c>
